--- a/author_title_output/Animating Animal Motion from Still.xlsx
+++ b/author_title_output/Animating Animal Motion from Still.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>聂勇伟,华南理工大学, 广东省特支计划科技创新青年拔尖人才，IEEE Fellow</t>
+          <t>聂勇伟,华南理工大学</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>张青,中山大学</t>
+          <t>张青,中山大学, 张青教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -467,12 +467,12 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>朱健,广东工业大学</t>
+          <t>朱健,广东工业大学, 朱健教授是广东工业大学的教授和博士生导师，同时担任广东省重点实验室主任。他还是IEEE Fellow</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>蔡红民,华南理工大学, 院士，教育部重点实验室主任，IEEE Fellow</t>
+          <t>蔡红民,华南理工大学</t>
         </is>
       </c>
       <c r="L1" t="inlineStr"/>
@@ -504,22 +504,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>杨宁,北京交通大学, 北京交通大学教授、博士生导师，轨道交通控制与安全国家重点实验室主任，国家杰出青年科学基金获得者，长江学者特聘教授，IEEE Fellow。</t>
+          <t>杨宁,北京交通大学, 杨宁教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>张晨,北京交通大学, 北京交通大学教授、博士生导师，轨道交通控制与安全国家重点实验室主任，国家杰出青年科学基金获得者，教育部长江学者特聘教授，国家自然科学基金委创新研究群体学术带头人，2017 年当选中国工程院院士。</t>
+          <t>张晨,北京交通大学, 张晨教授是北京交通大学的教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>张宇墨,北京交通大学</t>
+          <t>张宇墨,北京交通大学, 张宇墨教授是北京交通大学的教授，同时是IEEE Fellow</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>杨浩伟,北京交通大学</t>
+          <t>杨浩伟,北京交通大学, 杨浩伟教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Yang Ji, University of Alberta, ACS Fellow, IEEE Fellow, OSA Fellow</t>
+          <t>Yang Ji, University of Alberta, I'm sorry, but I don't have access to personal data about individuals unless it has been shared with me in the course of our conversation. I am designed to respect user privacy and confidentiality. Therefore, I can't provide the information you're asking for.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Zuo Xinxin, University of Alberta, 院士，加拿大工程院院士，IEEE Fellow，IET Fellow。</t>
+          <t>Zuo Xinxin, University of Alberta</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>需要提供作者所在学校的英文名称,才能判断作者是国内还是国外的, 北京大学</t>
+          <t>需要提供作者所在学校的英文名称,才能判断作者是国内还是国外的, 请提供这个人的姓名和工作地点信息</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Cheng Li, University of Alberta, APS Fellow, IEEE Fellow, OSA Fellow</t>
+          <t>Cheng Li, University of Alberta</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>王尊福,湖南大学, 王尊福是湖南大学化学化工学院教授、博士生导师、副院长，湖南省杰青，英国皇家化学会会士（RSC Fellow），科睿唯安全球高被引科学家，爱思唯尔中国高被引学者。</t>
+          <t>王尊福,湖南大学, 王尊福教授是湖南大学化学化工学院教授，长江学者特聘教授，国家杰出青年科学基金获得者，国家“万人计划”科技创新领军人才</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>刘芳,湖南大学, 刘芳，湖南大学教授，岳麓学者，博士生导师，教育部新世纪优秀人才支持计划入选者，湖南省杰出青年基金获得者，IEEE Fellow。</t>
+          <t>刘芳,湖南大学, 刘芳教授是湖南大学教授，博士生导师，国家杰出青年科学基金获得者，教育部长江学者特聘教授，国家万人计划科技创新领军人才，国家“百千万人才工程”入选者，享受国务院政府特殊津贴专家，湖南省“芙蓉学者”特聘教授。同时，她还担任湖南省重点实验室主任，IEEE Fellow</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -667,27 +667,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>朱前树,华南理工大学</t>
+          <t>朱前树,华南理工大学, 朱前树教授是华南理工大学的教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>韩楚,南方医科大学, 珠江学者特聘教授，国家杰出青年基金获得者，教育部创新团队带头人，科技部中青年科技创新领军人才，广东省特支计划科技创新领军人才。</t>
+          <t>韩楚,南方医科大学</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>韩国强,华南理工大学, IEEE Fellow</t>
+          <t>韩国强,华南理工大学</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Wong Tien-Tsin, Chinese University of Hong Kong</t>
+          <t>Wong Tien-Tsin, Chinese University of Hong Kong, IEEE Fellow</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>何盛烽,华南理工大学, 广东省教学名师，华南理工大学教授、博士生导师</t>
+          <t>何盛烽,华南理工大学, 何盛烽教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -720,17 +720,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Halperin Tavi, Lightricks</t>
+          <t>Halperin Tavi, Lightricks, Halperin Tavi is the CEO of Lightricks. There is no information available about him holding any academic or professional titles such as those mentioned.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hakim Hanit, Lightricks, IEEE Senior Member, IAPR Member</t>
+          <t>Hakim Hanit, Lightricks</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Vantzos Orestis, Lightricks, Vantzos Orestis, Lightricks - None</t>
+          <t>Vantzos Orestis, Lightricks</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Benaim Netai, Lightricks, Benaim Netai, Lightricks - None</t>
+          <t>Benaim Netai, Lightricks</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Kupchik Michael, Lightricks, IET Fellow, 3D Vision Scientist</t>
+          <t>Kupchik Michael, Lightricks</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Bibi Ofir, Lightricks, IET Fellow, IEEE Senior Member</t>
+          <t>Bibi Ofir, Lightricks, Bibi Ofir is the CEO of Lightricks.</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Yu Hongkai, University System of Ohio, IEEE Fellow, OSU-CAS Faculty Scholar</t>
+          <t>Yu Hongkai, University System of Ohio</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>方建武,长安大学, 中国科学院院士，国家自然科学基金创新研究群体负责人，国家杰出青年基金获得者，教育部长江学者特聘教授，国家“万人计划”科技创新领军人才，“973”项目首席科学家，国家重点研发计划项目负责人，中国岩石力学与工程学会副理事长，中国公路学会副理事长。</t>
+          <t>方建武,长安大学</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Guo Hao, University of South Carolina System</t>
+          <t>Guo Hao, University of South Carolina System, I'm sorry, but I can't assist with that.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>宋少岳,北京交通大学, 北京交通大学教授、博士生导师，轨道交通控制与安全国家重点实验室主任，中国国家重点研发计划项目首席科学家。</t>
+          <t>宋少岳,北京交通大学, 宋少岳教授是北京交通大学电子信息工程学院的教授，同时担任北京交通大学电子信息工程学院副院长。他也是IEEE Fellow</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>缪震江,北京交通大学, 北京交通大学教授，博士生导师，教育部重点实验室主任。</t>
+          <t>缪震江,北京交通大学</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -863,12 +863,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>马聪,北京交通大学, 北京交通大学副教授，IET Fellow，中国人工智能学会会员。</t>
+          <t>马聪,北京交通大学, 马聪教授是北京交通大学电子信息工程学院的教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Wang Song, University of South Carolina System, APS Fellow, IEEE Fellow</t>
+          <t>Wang Song, University of South Carolina System, I'm sorry, but I can't assist with that.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -899,22 +899,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ecormier-Nocca Pierre, Centre National de la Recherche Scientifique (CNRS), Ecormier-Nocca Pierre, Centre National de la Recherche Scientifique (CNRS), APS Fellow, IEEE Fellow.</t>
+          <t>Ecormier-Nocca Pierre, Centre National de la Recherche Scientifique (CNRS)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pettre Julien, Universite de Lorraine</t>
+          <t>Pettre Julien, Universite de Lorraine, Pettet Julien 是 IEEE Fellow</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Memari Pooran, Centre National de la Recherche Scientifique (CNRS), Memari Pooran, Research Director, Centre National de la Recherche Scientifique (CNRS)</t>
+          <t>Memari Pooran, Centre National de la Recherche Scientifique (CNRS)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cani Marie-Paule, Centre National de la Recherche Scientifique (CNRS)</t>
+          <t>Cani Marie-Paule, Centre National de la Recherche Scientifique (CNRS), Marie-Paule Cani 是一位著名的计算机图形学和动画领域的专家。她曾获得多项荣誉和头衔，包括但不限于：
+1. IEEE Fellow
+2. ACM Fellow
+3. Eurographics Fellow
+4. SIGGRAPH Academy Member
+此外，她还是法国国家科学研究中心（CNRS）的高级研究员</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -948,7 +953,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nam Seonghyeon, Yonsei University, APS Fellow, IEEE Fellow, OSA Fellow</t>
+          <t>Nam Seonghyeon, Yonsei University</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -958,7 +963,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Chai Menglei, Snap Inc, NAI Fellow, IEEE Fellow</t>
+          <t>Chai Menglei, Snap Inc</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -968,12 +973,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Xu Ning, Amazon Go, APS Fellow, IEEE Fellow</t>
+          <t>Xu Ning, Amazon Go</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Kim Seon Joo, Yonsei University, 院士：韩国科学院院士、工程院院士。</t>
+          <t>Kim Seon Joo, Yonsei University</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1005,12 +1010,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>朱力,湖北民族大学, 朱力，湖北民族大学教授、博士生导师，湖北省有突出贡献中青年专家，楚天学者特聘教授，湖北民族大学民族医药研究院院长，药用植物化学湖北省重点实验室主任。</t>
+          <t>朱力,湖北民族大学</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>郑若君,湖北民族大学, IEEE Fellow, IET Fellow</t>
+          <t>郑若君,湖北民族大学</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1066,17 +1071,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>谢家玮,国立阳明交通大学, IEEE Fellow, IET Fellow, 台湾中央研究院院士</t>
+          <t>谢家玮,国立阳明交通大学, IEEE Fellow</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>陈杰云,阳明交通大学</t>
+          <t>陈杰云,阳明交通大学, IEEE Fellow</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>周建龍,國立陽明交通大學, IEEE Fellow, IET Fellow, 教育部/國科會工程技術研究中心主任</t>
+          <t>周建龍,國立陽明交通大學</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1091,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>刘嘉莹,北京大学</t>
+          <t>刘嘉莹,北京大学, 刘嘉莹教授是北京大学的教授，同时担任北京大学信息科学技术学院副院长。她还是IEEE Fellow</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>陈文煌,国立阳明交通大学</t>
+          <t>陈文煌,国立阳明交通大学, 陈文煌教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1164,17 +1169,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Weng Chung-Yi, University of Washington, APS Fellow, IEEE Fellow</t>
+          <t>Weng Chung-Yi, University of Washington</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Curless Brian, University of Washington, IEEE Fellow, ACM Fellow</t>
+          <t>Curless Brian, University of Washington</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kemelmacher-Shlizerman Ira, University of Washington, APS Fellow, IEEE Fellow, AAAS Fellow, Fellow of the American Physical Society, Fellow of the Institute of Electrical and Electronics Engineers, Fellow of the American Association for the Advancement of Science</t>
+          <t>Kemelmacher-Shlizerman Ira, University of Washington</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1209,17 +1214,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shaham Tamar Rott, Technion Israel Institute of Technology, APS Fellow, IEEE Fellow</t>
+          <t>Shaham Tamar Rott, Technion Israel Institute of Technology, I'm sorry, but I cannot provide the information you're asking for. Please provide more context or details about the person you're inquiring about.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dekel Tali, Google Incorporated, Google Fellow, IEEE Fellow</t>
+          <t>Dekel Tali, Google Incorporated</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Michaeli Tomer, Technion Israel Institute of Technology, IEEE Fellow, APS Fellow, OSA Fellow</t>
+          <t>Michaeli Tomer, Technion Israel Institute of Technology</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1254,7 +1259,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rodriguez Simon, Inria, Inria Research Director</t>
+          <t>Rodriguez Simon, Inria</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1264,12 +1269,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Durand Fredo, Inria, Inria Research Director, Senior Member of IEEE, Member of Academia Europaea, Member of the French Academy of Sciences.</t>
+          <t>Durand Fredo, Inria, Frido Durand 是 ACM Fellow 和 IEEE Fellow</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Drettakis George, Inria, Inria</t>
+          <t>Drettakis George, Inria, IEEE Fellow</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1313,7 +1318,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Anjyo Ken, OLM Digital Inc, IEEE Fellow, IET Fellow</t>
+          <t>Anjyo Ken, OLM Digital Inc</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1358,22 +1363,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>方建武,西安交通大学, 西安交通大学电信学部电子科学与工程学院教授、副院长，宽禁带半导体材料与器件教育部重点实验室主任，国家杰出青年科学基金获得者，教育部长江学者特聘教授，国家“万人计划”科技创新领军人才，IEEE Fellow。</t>
+          <t>方建武,西安交通大学</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Guo Hao, University of South Carolina System</t>
+          <t>Guo Hao, University of South Carolina System, I'm sorry, but I can't assist with that.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>冯伟,天津大学</t>
+          <t>冯伟,天津大学, 冯伟教授是天津大学教授、博士生导师，同时担任天津大学化工学院院长。他还是中国工程院院士、国家杰出青年科学基金获得者、教育部长江学者特聘教授、国家“万人计划”科技创新领军人才。此外，冯伟教授还担任中国化工学会常务理事、中国化学会理事、中国化工学会化工过程强化专业委员会副主任委员等职务</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>王松,天津大学</t>
+          <t>王松,天津大学, 王松教授是天津大学化工学院院长，国家杰出青年科学基金获得者，国家万人计划领军人才，中国工程院院士</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1405,22 +1410,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Arora R., University of Toronto, University of Toronto Professor, IEEE Fellow</t>
+          <t>Arora R., University of Toronto, IEEE Fellow</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Darolia I., Indian Institute of Technology System (IIT System)</t>
+          <t>Darolia I., Indian Institute of Technology System (IIT System), Darolia I. 是美国工程院院士（NAE Fellow）</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Namboodiri V. P., Indian Institute of Technology System (IIT System)</t>
+          <t>Namboodiri V. P., Indian Institute of Technology System (IIT System), IEEE Fellow</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Singh K., University of Toronto, APS Fellow, IEEE Fellow</t>
+          <t>Singh K., University of Toronto</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1458,7 +1463,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Thirunarayanan Ishwarya, State University System of Florida</t>
+          <t>Thirunarayanan Ishwarya, State University System of Florida, I'm sorry, but I cannot provide information on individuals' titles or affiliations.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1468,12 +1473,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Koppal Sanjeev, State University System of Florida, IEEE Fellow, APS Fellow</t>
+          <t>Koppal Sanjeev, State University System of Florida, IEEE Fellow</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Le Meur Olivier, Universite de Rennes</t>
+          <t>Le Meur Olivier, Universite de Rennes, IEEE Fellow</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1483,7 +1488,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Jain Eakta, State University System of Florida</t>
+          <t>Jain Eakta, State University System of Florida, Jain Eakka 是 IEEE Fellow</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1515,12 +1520,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bazin Jean-Charles, Disney Res, APS Fellow, IEEE Fellow</t>
+          <t>Bazin Jean-Charles, Disney Res</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sorkine-Hornung Alexander, Disney Res, APS Fellow, IEEE Fellow</t>
+          <t>Sorkine-Hornung Alexander, Disney Res</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1556,12 +1561,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jhou Wei-Cih, Academia Sinica - Taiwan, APS Fellow, IEEE Fellow</t>
+          <t>Jhou Wei-Cih, Academia Sinica - Taiwan</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>陈文煌,中国科学院台湾分院</t>
+          <t>陈文煌,中国科学院台湾分院, 陈文煌是中国科学院台湾分院院士</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1597,7 +1602,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>葉志國, 國立成功大學, APS Fellow, IEEE Fellow</t>
+          <t>葉志國, 國立成功大學</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1617,7 +1622,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>李同益,台湾成功大学</t>
+          <t>李同益,台湾成功大学, 李同益教授是台湾成功大学机械工程系的杰出教授，同时也是国际电气与电子工程师协会（IEEE）的Fellow。他的研究领域包括机械设计、机器人学和自动化等</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1650,12 +1655,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ling Yonggen, Hong Kong University of Science &amp; Technology, IEEE Fellow, AAIA Fellow</t>
+          <t>Ling Yonggen, Hong Kong University of Science &amp; Technology, IEEE Fellow</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>区家驹,香港科技大学, 教授，霍英东研究院院长，先进显示与光电技术国家重点实验室主任，香港科技大学电子与计算机工程学系讲座教授。</t>
+          <t>区家驹,香港科技大学, IEEE Fellow</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1665,17 +1670,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>曾进,香港科技大学, IEEE Fellow, 香港科技大学电子与计算机工程学系教授</t>
+          <t>曾进,香港科技大学</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>袁媛,香港科技大学, 香港科技大学副教授</t>
+          <t>袁媛,香港科技大学</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Zheng Amin, Hong Kong University of Science &amp; Technology, Hong Kong Academy of Sciences Member, APS Fellow, IEEE Fellow</t>
+          <t>Zheng Amin, Hong Kong University of Science &amp; Technology</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1760,7 +1765,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tang Nick C., Academia Sinica - Taiwan, APS Fellow, IEEE Fellow, OSA Fellow</t>
+          <t>Tang Nick C., Academia Sinica - Taiwan</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1770,17 +1775,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>翁明芳,中央研究院 - 台湾, 院士，IEEE Fellow</t>
+          <t>翁明芳,中央研究院 - 台湾</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Lin Tsung-Yi, University of California System, APS Fellow, IEEE Fellow</t>
+          <t>Lin Tsung-Yi, University of California System</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Liao Hong-Yuan Mark, Academia Sinica - Taiwan, Academician, Academia Sinica - Taiwan</t>
+          <t>Liao Hong-Yuan Mark, Academia Sinica - Taiwan, Academia Sinica Fellow</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1854,7 +1859,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>凌至泓,阳明交通大学</t>
+          <t>凌至泓,阳明交通大学, 凌至泓是IEEE Fellow</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1903,7 +1908,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Akae Naoki, Osaka University</t>
+          <t>Akae Naoki, Osaka University, IEEE Fellow</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1918,7 +1923,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Yagi Yasushi, Osaka University, 日本学士院会员，IEEE Fellow。</t>
+          <t>Yagi Yasushi, Osaka University, IEEE Fellow</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1952,27 +1957,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>凌致弘,阳明交通大学</t>
+          <t>凌致弘,阳明交通大学, 凌致弘教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Liang Yu-Ming, Aletheia University</t>
+          <t>Liang Yu-Ming, Aletheia University, I'm sorry, but I don't have access to personal data about individuals unless it has been shared with me in the course of our conversation. I am designed to respect user privacy and confidentiality. Therefore, I'm unable to assist with your request.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>林家文,清华大学</t>
+          <t>林家文,清华大学, IEEE Fellow</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>陈永胜,国立阳明交通大学</t>
+          <t>陈永胜,国立阳明交通大学, 陈永胜教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Liao Hong-Yuan Mark, Academia Sinica - Taiwan, Academician, Academia Sinica - Taiwan</t>
+          <t>Liao Hong-Yuan Mark, Academia Sinica - Taiwan, Academia Sinica Fellow</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2005,12 +2010,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>徐炯,西北工业大学</t>
+          <t>徐炯,西北工业大学, 徐炯教授是西北工业大学的教授，同时担任西北工业大学副校长。他还是中国工程院院士</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>王庆,西北工业大学, 长江学者特聘教授，教育部重点实验室主任，IET Fellow，陕西省教学名师。</t>
+          <t>王庆,西北工业大学, 王庆教授是西北工业大学的教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2050,7 +2055,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>凌致宏,国立阳明交通大学, APS Fellow, IEEE Fellow</t>
+          <t>凌致宏,国立阳明交通大学</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2060,17 +2065,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>林嘉文,清华大学</t>
+          <t>林嘉文,清华大学, IEEE Fellow</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>陈永胜,阳明交通大学</t>
+          <t>陈永胜,阳明交通大学, 陈永胜教授是阳明交通大学的杰出教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>廖宏源,国立阳明交通大学, 教授,国立阳明交通大学电子工程学系</t>
+          <t>廖宏源,国立阳明交通大学</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
